--- a/docs/public/help/help_linked_docs/accessioning_template_simple.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_simple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/Documents/help_linked_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{913F1F27-01B3-B54A-88C1-3A83FA4CD86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3809F3-5D73-6146-9EF9-F02E1AC617C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Age:</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Unique Analysis ID*:</t>
+  </si>
+  <si>
+    <t>Case Files:</t>
+  </si>
+  <si>
+    <t>Genome Build:</t>
   </si>
 </sst>
 </file>
@@ -909,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -931,9 +937,12 @@
     <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.83203125" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -981,6 +990,12 @@
       </c>
       <c r="P1" t="s">
         <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/public/help/help_linked_docs/accessioning_template_simple.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3809F3-5D73-6146-9EF9-F02E1AC617C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47901F5D-33A0-ED44-886E-EEA809D79EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,9 +557,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,24 +919,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" customWidth="1"/>
     <col min="7" max="8" width="9.83203125" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
     <col min="14" max="14" width="23.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.83203125" customWidth="1"/>
@@ -943,58 +945,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/docs/public/help/help_linked_docs/accessioning_template_simple.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47901F5D-33A0-ED44-886E-EEA809D79EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396DBD70-B145-044D-BEAE-67E0B410C82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Age:</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Genome Build:</t>
+  </si>
+  <si>
+    <t>BAM Sample ID:</t>
   </si>
 </sst>
 </file>
@@ -917,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,9 +945,10 @@
     <col min="16" max="16" width="21.83203125" customWidth="1"/>
     <col min="17" max="17" width="24.33203125" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -998,6 +1002,9 @@
       </c>
       <c r="R1" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/public/help/help_linked_docs/accessioning_template_simple.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_simple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal-2/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396DBD70-B145-044D-BEAE-67E0B410C82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FE2CEC-40C1-1448-AA5A-EAE3FEB15D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Age:</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>BAM Sample ID:</t>
+  </si>
+  <si>
+    <t>Variant Type:</t>
   </si>
 </sst>
 </file>
@@ -920,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -945,10 +948,11 @@
     <col min="16" max="16" width="21.83203125" customWidth="1"/>
     <col min="17" max="17" width="24.33203125" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1004,6 +1008,9 @@
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/public/help/help_linked_docs/accessioning_template_simple.xlsx
+++ b/docs/public/help/help_linked_docs/accessioning_template_simple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal-2/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FE2CEC-40C1-1448-AA5A-EAE3FEB15D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBA65A2-C28E-9B40-BCD8-1C6F633F3F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Age:</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Variant Type:</t>
+  </si>
+  <si>
+    <t>Tags:</t>
   </si>
 </sst>
 </file>
@@ -923,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,15 +947,15 @@
     <col min="12" max="12" width="16.6640625" customWidth="1"/>
     <col min="13" max="13" width="15.83203125" customWidth="1"/>
     <col min="14" max="14" width="23.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.83203125" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" customWidth="1"/>
+    <col min="15" max="16" width="15.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -998,19 +1001,22 @@
       <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
